--- a/subgroups/sbom-sg/outcomes/SBOM/SBOMTools/LearnSBOM/LearnSBOMList.xlsx
+++ b/subgroups/sbom-sg/outcomes/SBOM/SBOMTools/LearnSBOM/LearnSBOMList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sonyjpn-my.sharepoint.com/personal/hiroyuki_fukuchi_sony_com/Documents/ドキュメント/OpenChain/SBOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="604" documentId="8_{0F481742-EC34-4620-BA6D-267154DAC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FE4140E-01C9-4E7F-B619-BFCA77B30865}"/>
+  <xr:revisionPtr revIDLastSave="609" documentId="8_{0F481742-EC34-4620-BA6D-267154DAC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9479E97-C23A-470B-9ABE-3B3E8793D418}"/>
   <bookViews>
-    <workbookView xWindow="504" yWindow="960" windowWidth="20772" windowHeight="10152" activeTab="3" xr2:uid="{627C03B7-2A37-4A7C-9FB2-07470DF8D28A}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="20772" windowHeight="10152" activeTab="3" xr2:uid="{627C03B7-2A37-4A7C-9FB2-07470DF8D28A}"/>
   </bookViews>
   <sheets>
     <sheet name="SBOM_Utility_Tools" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="518">
   <si>
     <t>https://www.youtube.com/@LearnSBOM/playlistsその他は以下です。</t>
   </si>
@@ -8089,12 +8089,431 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>概要</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Sonatype Nancyは、Go環境向けのセキュリティスキャナです。このビデオでは、SonatypeのOSSインデックス脆弱性データベースを使用して脆弱な依存関係を検索する依存関係スキャナーツールについて説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>概要
+Jakeは、マニフェストファイルを介してCycloneDX SBOMを生成し、Sonatypeデータベースでセキュリティスキャンを実行するPythonパッケージです。このビデオでは、生成機能とスキャン機能の使用方法について説明します。
+⚠️編集9/26/2022 ⚠️ JakeはSonatypeの 「コントリビューション」 ですが、Sonatypeではサポートされていません。詳細情報:https://github.com/sonatype-nexus-com ...</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+Retire.jsはJSプロジェクト用のオープンソースのセキュリティツールで、Webブラウザー拡張機能としてインストールできます。このデモでは、ブラウザー拡張機能とリアルタイム脆弱性分析Webサイトのいくつかの機能について説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+Pip-Auditは、脆弱なパッケージをスキャンするPythonプロジェクトスキャナーです。このビデオでは、さまざまなpythonプロジェクトと環境をスキャンする方法について説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+ShiftLeft Scanはオープンソースセキュリティツールであり、ローカルプロジェクトの脆弱性をスキャンするためにコンテナー内で実行されるDockerイメージです。これらのスキャンは、結果のエグゼクティブサマリーと、脆弱なコンポーネントハッシュやシークレットの監査結果を含むその他の情報を生成します。このビデオでは、ツールの操作方法といくつかの機能の使用方法について説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">概要
+OSS Review Toolkit (ORT) は、プロジェクトディレクトリをスキャンしてさまざまな形式の一連のセキュリティレポートを生成できるオールインワンCLIプロジェクトユーティリティツールです。このビデオでは、Dockerといくつかのコマンドを使用してORTをビルドする方法を示します。 </t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+Coinbase Salusは、さまざまなプロジェクトに脆弱性や不適切なコーディングがないかをスキャンするセキュリティスキャンツールだ。このビデオでは、2つの異なるプロジェクトでツールを使用し、結果を分析するデモを行います。また、セキュリティニーズに合わせてSalus用のカスタム構成ファイルを作成する方法についても説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+オープンソース脆弱性検出器は、プロジェクトのロックファイルを使用して脆弱性スキャンを実行するバイナリです。このビデオでは、バイナリを使用して一連のプロジェクトをスキャンする方法について説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+TernはLinux上のDockerイメージ用のSBOMジェネレータです。Ternはさまざまなシェルスクリプトを使用して、Dockerコンテナの構築に使用されるさまざまなレイヤを解析し、各レイヤの依存関係に関する非常に詳細なレポートを作成します。また、このツールはSPDXやCycloneDX SBOMを含む一連のSBOMを作成することもできる。さらに、TernにはDocker-Lock機能があり、Dockerfileを他のロックファイルと同様に実行時により正確なバージョンに変換する。このビデオでは、Ternを最大限に活用する方法を説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+OchronaCLIは、Pythonプロジェクトをスキャンして脆弱なパッケージを検出する脆弱性スキャナーです。このツールには、CycloneDX SBOMを生成する機能など、環境のニーズに最適な機能が多数用意されています。このビデオでは、OchronaCLIを使用してPythonコードの脆弱性をスキャンする方法について説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+Grypeは、プロジェクトとSBOMをスキャンして安全であることを確認するバイナリツールです。Grypeには、大規模で適切に管理されたデータベースがあり、最適に機能するようにGrypeを設定するための一連のカスタマイズ可能なオプションがあります。このビデオでは、Grypeの基本とプロジェクトでの使用方法について説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>説明
+AuditJSは、ノードプロジェクトの脆弱性スキャナーを簡単に使用できるCLIツールです。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Kicsは、さまざまなインフラストラクチャと互換性のある脆弱性、コンプライアンス、およびインフラストラクチャの構成ミスをスキャンするツールです。Kicsは、Azure、AWS、Bitbucketなど、多くのプラグインでCI/CDをサポートしている。このビデオでは、インストールと脆弱性スキャンの機能に焦点を当て、Kicsのクエリの作成方法とKicsのユースケースについて説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このビデオでは、Cloud Native Computing Foundationによって開発されたツールであるCosignについて詳しく説明します。Cosignは、サプライチェーンの透明性を高め、組織がソフトウェアイメージの認証と整合性を検証できるようにするイメージ署名を可能にします。ソフトウェア部品表 (SBOMS) は、イメージの共同署名と統合することもでき、トレーサビリティによってリスク管理を向上させることができます。 </t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>説明
+包括的で汎用性の高いセキュリティスキャナであるTrivyのデモをご覧ください。Trivyは、セキュリティの問題を探すスキャナーと、それらの問題を見つけることができるターゲットを持っています。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+CDX-BOM-Repoは、CycloneDX SBOM用にカスタマイズ可能なSBOMリポジトリを作成するDockerコンテナです。このビデオでは、コンテナを設定する方法と、Repoにアクセス/管理する方法について説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+Markdown SBOM Tool (mdbom) は、CycloneDX SBOMを取得してmarkdownファイルに変換するPythonパッケージです。このビデオでは、既定で提供されている.mdテンプレートを使用してSBOMを変換し、結果を表示する方法について説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+SPDX Javaは、SPDX SBOMを処理するために使用されるバイナリ・ツールです。このツールは、SPDX SBOMの生成、変換、比較、検証および表示を行うことができます。このビデオでは、これらのすべての機能をデモンストレーションし、結果を説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+CycloneDX Web Appは、ローカルまたはCycloneDX GitHubページを通じて実行されるWebアプリケーションで、GUIを通じて基本的なSBOMツールを簡単に使用できます。このビデオでは、Webサイトへのアクセス方法といくつかの機能について説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+CycloneDX CLIは、CycloneDX SBOMの生成、変換、および解析を行う、複数のオペレーティング・システムで使用可能なバイナリ・ツールです。このビデオでは、SBOMで基本的な関数を使用する方法を示し、結果について詳しく説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+CycloneDX Core for Javaは、カスタムSBOMファイルの作成と解析を可能にするMavenプラグインです。このビデオでは、このライブラリの基本を説明するために、2つのJavaプログラムについて説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+CycloneDX for NPM GitHub Actionは、CycloneDX for NPMを使用するGitHub Actionです。このビデオでは、このツールをGitHubワークフローに組み込む方法を示します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+Open Source Vulnerability Databaseは公開されているオープンソースのデータベースで、さまざまなエコシステムから3万以上の脆弱性が保存されています。このビデオでは、データベース自体とOSV APIの使用方法について説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+SCANOSS Audit Workbenchは、プロジェクトの内容を視覚的に表示するGUIツールです。このビデオでは、レポートを生成して分析する方法について説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">概要
+SPDXオンラインツールは、ツールをダウンロードまたは設定することなく、SPDX SBOMを簡単に操作できるWebサイトです。
+❗更新❗
+SPDXオンラインツールには、録画時にはなかった 「NTIA適合性チェッカー」 機能が追加されました。この機能は、SPDX SBOMを取得し、NTIAの 「SBOMの最小要素」 要件を満たしているかどうかをチェックします。
+🎯ソースコード:https://github.com/spdx/ntia-conforma ...
+🎯"SBOMの最小要素":https://www.ntia.doc.gov/files/ntia/p ...
+</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>説明
+dtrack-auditは、Dependency Track APIと連携してDependency Trackプロジェクトを設定および管理するGoツールです。使用する環境変数が多数あり、CI/CDパイプラインでの作業に最適です。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>説明
+CycloneDX Pythonライブラリは、Pythonで独自のカスタムSBOMツールを構築する優れた方法です。以前取り上げた既存のOSSツールの多くは、これらのライブラリを利用しています。このデモでは、CycloneDX Pythonライブラリの使用方法のほんの一部を示します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>SBOMToolsは、SBOMからコンポーネントのリスト、検索、追加、削除を実行できる4-in-1 SBOMユーティリティです。SBOMToolsはCycloneDXとSPDXの両方のJSON形式で動作します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>SBOM品質スコアは、SBOMの品質を評価するためのコマンドラインツールです。SBOMqsは、SBOMの消費性を評価します。スコアが高いほど、SBOMの消耗性が高くなります。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Hopprは、ソフトウェア部品表 (SBOM) およびセキュアソフトウェアサプライチェーン (S3C) ユーティリティキットです。シンプルなプラグインアーキテクチャで構築されたHopprは、デジタル資産を収集、処理、バンドルして、ある本番環境から別の本番環境への転送を合理化できます。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>SBOM2DOCを使用すると、さまざまなSBOM形式から専門的で読みやすいドキュメントを生成できます。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>このビデオでは、ソフトウェアのセキュリティと信頼性を評価するためのツールであるeBayのSBOMスコアカードを詳しく見ていきます。その評価基準を探求し、情報に基づいた意思決定に活用する方法を発見し、サプライチェーンのセキュリティを強化する上での重要な役割を理解するために、私たちに参加してください。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>説明
+このデモでは、SPDXおよびCycloneDX形式のディレクトリからSBOMを生成するために設計されたオープンソースツールであるSBOM4Filesについて説明します。このツールは、ディレクトリ内のファイルを識別し、ライセンスおよび著作権情報のリストをコンパイルします。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>説明
+このビデオでは、包括的なチェックを通じてSBOMコンテンツの品質をレポートするコマンドラインインターフェイスであるSBOM監査ツールについて説明します。このツールは、タグ値、JSON、YAML形式のSPDX SBOMと、JSON形式のCycloneDX SBOMをサポートしています。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>説明
+SCANOSS API/Engineと対話するための簡単に使用可能なモジュールを提供するツールであるSCANOSS JSのデモに参加してください。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CycloneDX for Webpackは、JavaScript、Angular、React Webpackバンドル用のCycloneDX SBOMをすばやく生成できるWebpackプラグインです。 </t>
+  </si>
+  <si>
+    <t>ScanCodeツールキットは、ライセンス、著作権、パッケージマニフェスト、直接の依存関係などを検出します。主に、ライセンスの検出に使用されます。結果は、JSON、HTML、CSV、SPDX、またはJinjaテンプレートを使用したカスタム形式で保存できます。Scancodeツールキットは、Eclipse FoundationやOSS Review Toolkitなど、多くのグループやプロジェクトで使用されています。</t>
+  </si>
+  <si>
+    <t>CycloneDX Mavenは、Mavenを使用するJavaプロジェクト用のプラグインです。このビデオでは、コマンドプロンプトからいくつかのコマンドを使用して、このツールでSBOMを生成する方法を説明します。さらに、CycloneDX SBOMの構成要素についても説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+CycloneDX-Conanは、Conanを使用してCおよびC++プロジェクト用のCycloneDX SBOMを生成するPythonパッケージです。このビデオでは、ツールの使用方法と、ツールの使用中に発生するいくつかの問題の解決方法を示します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">概要
+cdxgenはCycloneDX SBOMの生成に使用できるインストール可能なパッケージです。このツールはCLIを使用し、非常に簡単に使用できます。このビデオでは、いくつかのコマンドだけでSBOMを生成する方法について簡単に説明します。
+</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+CycloneDX for Pythonは、Pythonプロジェクト用のCycloneDX SBOMを生成するPythonパッケージです。開発環境に合わせて、さまざまな場所から実行できます。このビデオでは、CycloneDX for Pythonを使用してSBOMを生成する方法について説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+SPDX SBOM Generatorは、CLIを使用してSPDXおよびJSON形式のSPDX SBOMを生成するバイナリ(Mac、Linux、Windowsで利用可能)です。このビデオでは、ツールの基本的な使用方法を示し、SPDXの結果を分析します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+CycloneDXはのSBOMジェネレータです。NETプロジェクトを使用します。slnファイルをスキャンすることも、.csprojファイルを再帰的にスキャンすることもできます。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+CycloneDX for NPMは、ノードのSBOMジェネレータです。JSプロジェクト。NPMからインストールして使用できます。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+Microsoft Salusは、の実行可能なSBOM生成および検証ツールです。NETプロジェクトに対応しており、Windows、Linux、MacOSで利用できる。このツールは、指定されたディレクトリ内の.csprojファイルをスキャンし、SPDX形式のSBOMを生成します。このビデオでは、コマンドを正しく設定し、結果を分析する方法について説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">概要
+これは、Dockerイメージ用のコマンドラインSBOMジェネレータです。 </t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+CycloneDX PHP Composer Pluginは、Composer依存関係マネージャを使用してSBOMを作成するPHPプロジェクト用です。このビデオでは、composerを使用してツールをインストールし、composerのロックファイルを使用してSBOMを生成する方法を説明します。おまけとして、このツールを使用するGitHubアクションの使用方法も説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+Syftは、DockerイメージとプロジェクトからSyft、SPDX、CycloneDX SBOMを生成するバイナリツールです。このツールは幅広い言語をサポートしており、作業環境に非常に柔軟に対応できます。このビデオでは、Syftを使用して独自のプロジェクトのSBOMを作成する方法について説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+JBOMは、静的および実行時バイナリからCycloneDX SBOMを生成できるjar実行可能ファイルです。このツールはソースコードへのアクセスを必要としないため、サードパーティ製またはクローズドソースのソフトウェアを使用する開発パイプラインを保護する際に貴重なリソースとなります。このビデオでは、JBOMを使用してこれらのSBOMを生成する方法について説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+apt2sbomは、インストールされたaptパッケージからSPDXおよびCycloneDX SBOMを生成するために使用できる単純なpythonパッケージです。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+SyftとGrypeには、ワークフローを改善するGitHub Actionsもある。これらは簡単に実装でき、ワークフローの自律性を維持するのに役立ちます。このビデオでは、各アクションの使用方法と、各ツールを最大限に活用するための最適な組み合わせについて詳しく説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>説明
+SPDX Maven PluginはMavenプロジェクト用のプラグインです。このプラグインには、Maven構築プロセスの一部として詳細なSPDX SBOMを作成するための多数の構成オプションがあります。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>説明
+WpBomは、WordPressサーバーにインストールされているすべてのプラグインとテーマを含むSBOMを自動的に生成するWordPressプラグインです。これらのSBOMは、プラグインまたはテーマが削除されるたびに、Dependency Trackサーバーにシームレスにアップロードできます。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>説明
+⚠️注⚠️このツールは古いCyclondeDXスキーマを使用しており、そのまま実行するといくつかの問題がありますが、修正を行っています。
+CDX Bower BOMは、Bowerを使用するJavascriptプロジェクト用のCycloneDX SBOMを生成するCLIツールです。CLIツールは、SBOMをマージするという追加機能を備えており、すばやく簡単に使用できます。 
+インストール
+Node.js v 8.0.0+(ダウンロード|Node.js)
+Bower (npm install-g bower)
+cdx-bower-bom (npm install-g cdx-bower-bom)
+バグ修正
+cdx-bower-bomグローバルインストール場所 (%appdata%/npm/node_modules/cdx-bower-bom/bin/cdx-bower-bom)</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>説明
+CycloneDx Gradle Pluginは、Gradle/Kotlinプロジェクト用のシンプルなプラグインです。このツールを使用して、CycloneDX SBOMをJSON形式とXML形式の両方で生成できます。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+SCANOSS Python Toolは、コマンドライン、パッケージ、またはDocker経由で使用できるPythonパッケージです。SCANOSS SCA APIを使用してWebをスクレイピングし、CycloneDXやSPDX-Liteなどの多数のSBOMを構築します。さらに、フィンガープリントアルゴリズムを使用して、ソースコードに一意のデジタルフィンガープリントを作成します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>CycloneDX for Rust Cargoは、Rust CargoプロジェクトのSBOMを生成するコマンドラインツールです。これはCargoプラグインで、cargo.tomlファイルを使用してSBOMを生成します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>CycloneDX-GoModは、コマンドラインツールとして使用できるSBOMジェネレーターであり、GitHub Action、GoReleaser、Docker、およびライブラリの実装を通じて使用することもできます。スキャンしようとしているプロジェクトに応じて、アプリケーション、モジュール、バイナリの3つのサブコマンドがあります。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>OpenRewriteは、大規模なソースコードリファクタリングエコシステムで最もよく知られていますが、このツールを使用してSBOMを生成することもできます。
+角かっこXSS攻撃を防ぐためにyoutubeの説明に入れることはできません。だから、この動画で使われているコードを挿入することはできません。代わりに、コードはOpenrewriteのドキュメントにあります (以下の参考文献にあります) 。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ビルド情報goは、Go、Maven、Gradle、NPM、NuGet、dotnet、yarn、pip、pipenv、および詩プロジェクトのSBOMやその他のビルド情報を生成するgoで記述されたジェネレーターです。また、goプロジェクト内からビルド情報を生成できるgoのAPIエンドポイントも備えています。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>CycloneDX Ruby Gemは、Gemfile.lockをスキャンし、CycloneDX v1.1 XML SBOMを生成するRubyプロジェクト用のSBOMジェネレータです。このツールは2年以上更新されていないため、代わりにCDXGenを使用することをお勧めします。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Lib4SBOMは、ソフトウェア部品表 (SBOM) を解析および生成するPythonライブラリです。SPDXおよびCycloneDXフォーマットをサポートしています。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CycloneDX-goはGoプロジェクト用の非常にシンプルなSBOMジェネレータです;CycloneDxバージョン1.1のみが生成されます。Goバージョン1.11以降が必要で、Go.modフォルダがあるプロジェクトでのみ動作します。 </t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Gobomは、Go、NPM、Cocoapods、Gradleプロジェクト用のコマンドラインSBOMジェネレータです。依存関係追跡プラグインとしても使用でき、gobomが現在のニーズに合わない場合は、カスタムジェネレーターを追加できます。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>コヴェナントは、コマンドラインインターフェイスでソースコードアーティファクトを使用するSBOM生成ツールです。CycloneDX形式とSPDX形式の両方のSBOMファイルを生成できます。コヴェナントは、SBOMファイルのHTMLレポートを作成したり、SBOMファイルのコンプライアンスチェックを実行したりすることもできます。
+NOTE:規約では、可能な限り正確な分析を行うために、すべてのプロジェクトが構築され、すべての依存関係が復元されている必要があります。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>koはGoアプリケーション用のシンプルで高速なコンテナイメージビルダーです。イメージを構築するためにdockerを必要とせず、Kubernetesアプリケーションのための強力なツールです。 
+これは、OSベースイメージに多くの依存関係がない単一のGoアプリケーションを含むイメージに最も便利です。
+KoはデフォルトでSPDX SBOMを生成し、CycloneDX SBOMを作成することもできます。CosignはSBOMをレジストリからプルするために使用されます。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>CycloneDX CocoapodsはCycloneDX v1.4用のCocoapods SBOMジェネレータです。SBOMはXML形式でのみ生成され、生成にはPodfileが必要です。また、完全に正確なSBOMを生成するには手動入力が必要で、CI/CD統合はありません。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>説明
+このデモでは、Pythonプロジェクトのソフトウェア部品表を生成するために設計されたオープンソースツールであるSBOM4Pythonについて説明します。SPDXおよびCycloneDXフォーマットをサポートしているため、このツールを使用して結果を分析する方法を説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>説明
+Elang/ElixirプロジェクトのSBOMSを生成するツールであるCycloneDX for Erlang/Elixir (Rebar3) のデモに参加しましょう。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">説明
+このビデオでは、SBOM4Rustのデモを行います。Pythonを使用して、Rustアプリケーション用のSBOMをSPDXおよびCycloneDXフォーマットで生成するツール。 </t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>説明
+このデモでは、インストールされたアプリケーションまたは完全なシステムインストールのSBOM (Software Bill of Materials) をSPDXやCycloneDXなどのさまざまな形式で生成するツールである、Distro2SBOMについて説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>説明
+今日は、SBT (Scala) プロジェクトのCycloneDX SBOMを作成するプラグインであるSBT-BOMのデモを行います。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>説明
+今日は、デモと概念実証を目的として、SPDX、CycloneDX、SWID形式のSBOMを生成するツールであるSwiftBOMをレビューします。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>説明
+GH (GitHub) SBOMのデモに参加してください;依存関係グラフの情報を使用してGitHubリポジトリのJSON SBOM (SPDXまたはCycloneDX形式) を出力するgh CLI拡張機能です。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+SPDXCycloneは、CycloneDX形式のSBOMをSPDX SBOMに変換して戻すCLIを介した.jar実行可能ファイルです。このビデオでは、ファイルを変換するプロセスの使用方法を示し、CycloneDXがSPDXにどのようにマッピングされるかを説明します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>概要
+SPDX Pythonは、SPDX形式のファイルを解析および変換するために使用されるPythonパッケージです。このビデオでは、生成と解析の例をいくつか示します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>概要
+SPDXオンラインツールは、ツールをダウンロードまたは設定することなく、SPDX SBOMを簡単に操作できるWebサイトです。
+❗更新❗
+SPDXオンラインツールには、録画時にはなかった 「NTIA適合性チェッカー」 機能が追加されました。この機能は、SPDX SBOMを取得し、NTIAの 「SBOMの最小要素」 要件を満たしているかどうかをチェックします。
+🎯ソースコード:https://github.com/spdx/ntia-conforma ...
+🎯"SBOMの最小要素":https://www.ntia.doc.gov/files/ntia/p ...</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8160,6 +8579,18 @@
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -8267,7 +8698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8318,6 +8749,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17278,10 +17718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54119C77-527F-4903-B6A0-019866776B69}">
-  <dimension ref="A3:G27"/>
+  <dimension ref="A3:H27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -17290,18 +17730,19 @@
     <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" customWidth="1"/>
     <col min="4" max="4" width="31.796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.59765625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="42.19921875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="3"/>
+    <col min="5" max="5" width="39.296875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="39.296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="34.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="42.19921875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>171</v>
       </c>
@@ -17314,17 +17755,20 @@
       <c r="D5" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="210" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>55</v>
       </c>
@@ -17337,17 +17781,20 @@
       <c r="D6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="9" t="s">
         <v>106</v>
@@ -17358,17 +17805,20 @@
       <c r="D7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="150" x14ac:dyDescent="0.45">
       <c r="A8" s="12"/>
       <c r="B8" s="9" t="s">
         <v>107</v>
@@ -17379,17 +17829,20 @@
       <c r="D8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="135" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" s="9" t="s">
         <v>108</v>
@@ -17400,17 +17853,20 @@
       <c r="D9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="150" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
       <c r="B10" s="9" t="s">
         <v>109</v>
@@ -17421,17 +17877,20 @@
       <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.45">
       <c r="A11" s="12"/>
       <c r="B11" s="9" t="s">
         <v>110</v>
@@ -17442,17 +17901,20 @@
       <c r="D11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="150" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="150" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
       <c r="B12" s="9" t="s">
         <v>111</v>
@@ -17463,17 +17925,20 @@
       <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="195" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="195" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
       <c r="B13" s="9" t="s">
         <v>112</v>
@@ -17484,17 +17949,20 @@
       <c r="D13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="165" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="165" x14ac:dyDescent="0.45">
       <c r="A14" s="12"/>
       <c r="B14" s="9" t="s">
         <v>113</v>
@@ -17505,17 +17973,20 @@
       <c r="D14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="183.6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="255" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
       <c r="B15" s="9" t="s">
         <v>114</v>
@@ -17526,17 +17997,20 @@
       <c r="D15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="210" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="210" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
       <c r="B16" s="9" t="s">
         <v>115</v>
@@ -17547,17 +18021,20 @@
       <c r="D16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="150" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="150" x14ac:dyDescent="0.45">
       <c r="A17" s="12"/>
       <c r="B17" s="9" t="s">
         <v>116</v>
@@ -17568,17 +18045,20 @@
       <c r="D17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="135" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="135" x14ac:dyDescent="0.45">
       <c r="A18" s="12"/>
       <c r="B18" s="9" t="s">
         <v>117</v>
@@ -17589,17 +18069,20 @@
       <c r="D18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="195" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="195" x14ac:dyDescent="0.45">
       <c r="A19" s="12"/>
       <c r="B19" s="9" t="s">
         <v>137</v>
@@ -17610,17 +18093,20 @@
       <c r="D19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="9" t="s">
         <v>118</v>
@@ -17631,17 +18117,20 @@
       <c r="D20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A21" s="12"/>
       <c r="B21" s="9" t="s">
         <v>119</v>
@@ -17652,17 +18141,20 @@
       <c r="D21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="105" x14ac:dyDescent="0.45">
       <c r="A22" s="12"/>
       <c r="B22" s="9" t="s">
         <v>120</v>
@@ -17673,17 +18165,20 @@
       <c r="D22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="150" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="150" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
       <c r="B23" s="9" t="s">
         <v>121</v>
@@ -17694,17 +18189,20 @@
       <c r="D23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="9" t="s">
         <v>122</v>
@@ -17715,17 +18213,20 @@
       <c r="D24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="225" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="225" x14ac:dyDescent="0.45">
       <c r="A25" s="12"/>
       <c r="B25" s="9" t="s">
         <v>123</v>
@@ -17736,17 +18237,20 @@
       <c r="D25" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A26" s="13"/>
       <c r="B26" s="9" t="s">
         <v>124</v>
@@ -17757,17 +18261,20 @@
       <c r="D26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
       <c r="D27" s="7"/>
     </row>
@@ -17805,10 +18312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B6520E-B16E-496E-94D2-3598A03EA2EA}">
-  <dimension ref="A3:G50"/>
+  <dimension ref="A3:H50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -17816,18 +18323,19 @@
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
     <col min="2" max="3" width="19.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="31.796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="41.09765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.59765625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="42.19921875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="3"/>
+    <col min="5" max="5" width="41.09765625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.09765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="34.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="42.19921875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>171</v>
       </c>
@@ -17840,17 +18348,20 @@
       <c r="D5" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>212</v>
       </c>
@@ -17863,17 +18374,20 @@
       <c r="D6" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="150" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>217</v>
@@ -17884,17 +18398,20 @@
       <c r="D7" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.45">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>221</v>
@@ -17905,17 +18422,20 @@
       <c r="D8" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="150" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="150" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>109</v>
@@ -17926,17 +18446,20 @@
       <c r="D9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>228</v>
@@ -17947,17 +18470,20 @@
       <c r="D10" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="135" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="135" x14ac:dyDescent="0.45">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>229</v>
@@ -17968,17 +18494,20 @@
       <c r="D11" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
         <v>233</v>
@@ -17989,17 +18518,20 @@
       <c r="D12" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="165" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="165" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>238</v>
@@ -18010,17 +18542,20 @@
       <c r="D13" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>241</v>
@@ -18031,17 +18566,20 @@
       <c r="D14" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>244</v>
@@ -18052,17 +18590,20 @@
       <c r="D15" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="135" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>248</v>
@@ -18073,17 +18614,20 @@
       <c r="D16" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="165" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="165" x14ac:dyDescent="0.45">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>252</v>
@@ -18094,17 +18638,20 @@
       <c r="D17" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="255" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="255" x14ac:dyDescent="0.45">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>256</v>
@@ -18115,17 +18662,20 @@
       <c r="D18" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="210" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="210" x14ac:dyDescent="0.45">
       <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
         <v>260</v>
@@ -18136,17 +18686,20 @@
       <c r="D19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="255" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="255" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
         <v>262</v>
@@ -18157,17 +18710,20 @@
       <c r="D20" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="165" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="165" x14ac:dyDescent="0.45">
       <c r="A21" s="12"/>
       <c r="B21" s="4" t="s">
         <v>266</v>
@@ -18178,17 +18734,20 @@
       <c r="D21" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="150" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="150" x14ac:dyDescent="0.45">
       <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
         <v>267</v>
@@ -18199,17 +18758,20 @@
       <c r="D22" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="360" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="360" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
         <v>275</v>
@@ -18220,17 +18782,20 @@
       <c r="D23" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="4" t="s">
         <v>277</v>
@@ -18241,17 +18806,20 @@
       <c r="D24" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="180" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="180" x14ac:dyDescent="0.45">
       <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
         <v>282</v>
@@ -18262,17 +18830,20 @@
       <c r="D25" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="252.6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="285" x14ac:dyDescent="0.45">
       <c r="A26" s="12"/>
       <c r="B26" s="4" t="s">
         <v>286</v>
@@ -18283,17 +18854,20 @@
       <c r="D26" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
       <c r="B27" s="4" t="s">
         <v>290</v>
@@ -18304,17 +18878,20 @@
       <c r="D27" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="225" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="225" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
       <c r="B28" s="4" t="s">
         <v>293</v>
@@ -18325,17 +18902,20 @@
       <c r="D28" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.45">
       <c r="A29" s="12"/>
       <c r="B29" s="4" t="s">
         <v>298</v>
@@ -18346,17 +18926,20 @@
       <c r="D29" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="270" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="270" x14ac:dyDescent="0.45">
       <c r="A30" s="12"/>
       <c r="B30" s="4" t="s">
         <v>302</v>
@@ -18367,17 +18950,20 @@
       <c r="D30" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="180" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="180" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
       <c r="B31" s="4" t="s">
         <v>305</v>
@@ -18388,17 +18974,20 @@
       <c r="D31" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="150" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="150" x14ac:dyDescent="0.45">
       <c r="A32" s="12"/>
       <c r="B32" s="4" t="s">
         <v>308</v>
@@ -18409,17 +18998,20 @@
       <c r="D32" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="165" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="165" x14ac:dyDescent="0.45">
       <c r="A33" s="12"/>
       <c r="B33" s="4" t="s">
         <v>313</v>
@@ -18430,17 +19022,20 @@
       <c r="D33" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A34" s="12"/>
       <c r="B34" s="4" t="s">
         <v>316</v>
@@ -18451,17 +19046,20 @@
       <c r="D34" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="165" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="165" x14ac:dyDescent="0.45">
       <c r="A35" s="12"/>
       <c r="B35" s="4" t="s">
         <v>320</v>
@@ -18472,17 +19070,20 @@
       <c r="D35" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A36" s="12"/>
       <c r="B36" s="4" t="s">
         <v>127</v>
@@ -18493,17 +19094,20 @@
       <c r="D36" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.45">
       <c r="A37" s="12"/>
       <c r="B37" s="4" t="s">
         <v>323</v>
@@ -18514,17 +19118,20 @@
       <c r="D37" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="150" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="150" x14ac:dyDescent="0.45">
       <c r="A38" s="12"/>
       <c r="B38" s="4" t="s">
         <v>327</v>
@@ -18535,17 +19142,20 @@
       <c r="D38" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="147.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="147.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12"/>
       <c r="B39" s="4" t="s">
         <v>331</v>
@@ -18556,17 +19166,20 @@
       <c r="D39" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="195" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="195" x14ac:dyDescent="0.45">
       <c r="A40" s="12"/>
       <c r="B40" s="4" t="s">
         <v>337</v>
@@ -18577,17 +19190,20 @@
       <c r="D40" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="165" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="165" x14ac:dyDescent="0.45">
       <c r="A41" s="12"/>
       <c r="B41" s="4" t="s">
         <v>341</v>
@@ -18598,17 +19214,20 @@
       <c r="D41" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A42" s="12"/>
       <c r="B42" s="4" t="s">
         <v>118</v>
@@ -18619,17 +19238,20 @@
       <c r="D42" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A43" s="12"/>
       <c r="B43" s="4" t="s">
         <v>332</v>
@@ -18640,17 +19262,20 @@
       <c r="D43" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="105" x14ac:dyDescent="0.45">
       <c r="A44" s="12"/>
       <c r="B44" s="4" t="s">
         <v>333</v>
@@ -18661,17 +19286,20 @@
       <c r="D44" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="105" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="105" x14ac:dyDescent="0.45">
       <c r="A45" s="12"/>
       <c r="B45" s="4" t="s">
         <v>344</v>
@@ -18682,17 +19310,20 @@
       <c r="D45" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A46" s="12"/>
       <c r="B46" s="4" t="s">
         <v>345</v>
@@ -18703,17 +19334,20 @@
       <c r="D46" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="89.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="12"/>
       <c r="B47" s="4" t="s">
         <v>346</v>
@@ -18724,17 +19358,20 @@
       <c r="D47" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A48" s="12"/>
       <c r="B48" s="4" t="s">
         <v>347</v>
@@ -18745,17 +19382,20 @@
       <c r="D48" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A49" s="12"/>
       <c r="B49" s="4" t="s">
         <v>348</v>
@@ -18766,17 +19406,20 @@
       <c r="D49" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A50" s="13"/>
       <c r="B50" s="4" t="s">
         <v>349</v>
@@ -18787,13 +19430,16 @@
       <c r="D50" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>369</v>
       </c>
     </row>
@@ -18855,10 +19501,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0052A72F-99A5-4DB1-A333-01DE0A789EB0}">
-  <dimension ref="A3:G14"/>
+  <dimension ref="A3:H14"/>
   <sheetViews>
     <sheetView topLeftCell="B12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E12" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -18867,18 +19513,19 @@
     <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.8984375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="42.19921875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="3"/>
+    <col min="5" max="5" width="39.59765625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="39.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.3984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="42.19921875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>171</v>
       </c>
@@ -18891,17 +19538,20 @@
       <c r="D5" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>54</v>
       </c>
@@ -18914,17 +19564,20 @@
       <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="150" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="150" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="9" t="s">
         <v>106</v>
@@ -18935,17 +19588,20 @@
       <c r="D7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="165" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="165" x14ac:dyDescent="0.45">
       <c r="A8" s="12"/>
       <c r="B8" s="9" t="s">
         <v>107</v>
@@ -18956,17 +19612,20 @@
       <c r="D8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="135" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" s="9" t="s">
         <v>108</v>
@@ -18977,17 +19636,20 @@
       <c r="D9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="150" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
       <c r="B10" s="9" t="s">
         <v>109</v>
@@ -18998,17 +19660,20 @@
       <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="150" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="150" x14ac:dyDescent="0.45">
       <c r="A11" s="12"/>
       <c r="B11" s="9" t="s">
         <v>126</v>
@@ -19019,17 +19684,20 @@
       <c r="D11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="210" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="210" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
       <c r="B12" s="9" t="s">
         <v>260</v>
@@ -19040,17 +19708,20 @@
       <c r="D12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="159.6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="225" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
       <c r="B13" s="9" t="s">
         <v>114</v>
@@ -19061,17 +19732,20 @@
       <c r="D13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>127</v>
@@ -19082,13 +19756,16 @@
       <c r="D14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>439</v>
       </c>
     </row>
@@ -19114,10 +19791,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EC331A-EAD8-4B76-BCAE-035C1A04ED8C}">
-  <dimension ref="A3:G20"/>
+  <dimension ref="A3:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -19126,18 +19803,19 @@
     <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.8984375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="42.19921875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="3"/>
+    <col min="5" max="5" width="39.59765625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="39.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.3984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="42.19921875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>171</v>
       </c>
@@ -19150,17 +19828,20 @@
       <c r="D5" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="135" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>370</v>
       </c>
@@ -19171,17 +19852,20 @@
       <c r="D6" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="144.6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="165" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>383</v>
@@ -19192,17 +19876,20 @@
       <c r="D7" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.45">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>384</v>
@@ -19211,17 +19898,20 @@
       <c r="D8" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>385</v>
@@ -19230,17 +19920,20 @@
       <c r="D9" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="135" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>386</v>
@@ -19249,17 +19942,20 @@
       <c r="D10" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="165" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="165" x14ac:dyDescent="0.45">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>387</v>
@@ -19268,17 +19964,20 @@
       <c r="D11" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="180" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="180" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
         <v>388</v>
@@ -19287,17 +19986,20 @@
       <c r="D12" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="165" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="165" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>389</v>
@@ -19306,17 +20008,20 @@
       <c r="D13" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="285" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="285" x14ac:dyDescent="0.45">
       <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>392</v>
@@ -19327,17 +20032,20 @@
       <c r="D14" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="270" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="270" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>390</v>
@@ -19348,17 +20056,20 @@
       <c r="D15" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="255" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="255" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>395</v>
@@ -19369,17 +20080,20 @@
       <c r="D16" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="225" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="225" x14ac:dyDescent="0.45">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>393</v>
@@ -19388,17 +20102,20 @@
       <c r="D17" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="240" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="240" x14ac:dyDescent="0.45">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>391</v>
@@ -19407,17 +20124,20 @@
       <c r="D18" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="120" x14ac:dyDescent="0.45">
       <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
         <v>119</v>
@@ -19428,17 +20148,20 @@
       <c r="D19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="225" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="225" x14ac:dyDescent="0.45">
       <c r="A20" s="13"/>
       <c r="B20" s="4" t="s">
         <v>394</v>
@@ -19449,13 +20172,16 @@
       <c r="D20" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>431</v>
       </c>
     </row>

--- a/subgroups/sbom-sg/outcomes/SBOM/SBOMTools/LearnSBOM/LearnSBOMList.xlsx
+++ b/subgroups/sbom-sg/outcomes/SBOM/SBOMTools/LearnSBOM/LearnSBOMList.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sonyjpn-my.sharepoint.com/personal/hiroyuki_fukuchi_sony_com/Documents/ドキュメント/OpenChain/SBOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="609" documentId="8_{0F481742-EC34-4620-BA6D-267154DAC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9479E97-C23A-470B-9ABE-3B3E8793D418}"/>
+  <xr:revisionPtr revIDLastSave="716" documentId="8_{0F481742-EC34-4620-BA6D-267154DAC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CF191AB-EF0A-433A-A0FC-C9561A164D6E}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="20772" windowHeight="10152" activeTab="3" xr2:uid="{627C03B7-2A37-4A7C-9FB2-07470DF8D28A}"/>
+    <workbookView xWindow="2952" yWindow="720" windowWidth="20772" windowHeight="11280" firstSheet="1" activeTab="4" xr2:uid="{627C03B7-2A37-4A7C-9FB2-07470DF8D28A}"/>
   </bookViews>
   <sheets>
     <sheet name="SBOM_Utility_Tools" sheetId="2" r:id="rId1"/>
     <sheet name="SBOM_Generator" sheetId="4" r:id="rId2"/>
     <sheet name="SBOM_Converters" sheetId="3" r:id="rId3"/>
     <sheet name="Security_Tools" sheetId="5" r:id="rId4"/>
-    <sheet name="SBOM_Info" sheetId="1" r:id="rId5"/>
+    <sheet name="SBOM関連情報" sheetId="6" r:id="rId5"/>
+    <sheet name="SBOM_Info" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="548">
   <si>
     <t>https://www.youtube.com/@LearnSBOM/playlistsその他は以下です。</t>
   </si>
@@ -8508,12 +8509,150 @@
     </r>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>https://www.finna.fi/Record/trepo.10024_148790</t>
+  </si>
+  <si>
+    <t>Managing 3rd Party Software Components with Software Bill of Materials</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドイツの情報セキュリティ庁によるSBOMの要件定義</t>
+  </si>
+  <si>
+    <t>SBOM-Anforderungen: TR-03183-2 stärkt Sicherheit in der Software-Lieferkette</t>
+  </si>
+  <si>
+    <t>https://spdx.dev/a-step-by-step-guide-to-signing-an-spdx-sbom-with-sigstores-cosign/</t>
+  </si>
+  <si>
+    <t>https://www.contrastsecurity.com/security-influencers/sbom-quality-cyclonedx-and-the-5-dimensions-of-sbom-quality-contrast-security</t>
+  </si>
+  <si>
+    <t>SBOM Quality: CycloneDX and the 5 dimensions of SBOM quality | Contrast Security</t>
+  </si>
+  <si>
+    <t>https://cyclonedx.org/docs/1.5/json/ </t>
+  </si>
+  <si>
+    <t>https://www.publickey1.jp/blog/23/githubcomsbomsbom.html</t>
+  </si>
+  <si>
+    <t>Top 7 SBOM Generation Tools and How to Choose</t>
+  </si>
+  <si>
+    <t>解説</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語概要</t>
+    <rPh sb="0" eb="5">
+      <t>ニホンゴガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英文概要</t>
+    <rPh sb="0" eb="4">
+      <t>エイブンガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SBOM定義</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CycloneDX v1.5</t>
+  </si>
+  <si>
+    <t>CycloneDX v1.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.11102</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2301.05362</t>
+  </si>
+  <si>
+    <t>論文</t>
+    <rPh sb="0" eb="2">
+      <t>ロンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論文</t>
+    <rPh sb="0" eb="2">
+      <t>ロンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Debianパッケージに対する依存関係を含むSPDXファイルの自動生成ツール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SBOMによる3rdPartyソフトウェアパッケージ管理</t>
+    <rPh sb="26" eb="28">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Challenges of Producing Software Bill Of Materials for Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>An Empirical Study on Software Bill of Materials: Where We Stand and the Road Ahead</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ken.ieice.org/ken/paper/20220730sCLt/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a tool to automatically generate SPDX files including dependency descriptions for Debian packages</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaのSBOM生成について</t>
+    <rPh sb="9" eb="11">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SBOMに関する実証研究</t>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ジッショウケンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8591,6 +8730,14 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -8698,7 +8845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8757,6 +8904,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -19503,7 +19662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0052A72F-99A5-4DB1-A333-01DE0A789EB0}">
   <dimension ref="A3:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E12" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -19793,7 +19952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EC331A-EAD8-4B76-BCAE-035C1A04ED8C}">
   <dimension ref="A3:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -20212,11 +20371,266 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C88F823-0D1C-4815-80D1-40AD63B22AC6}">
+  <dimension ref="A2:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="31" style="20" customWidth="1"/>
+    <col min="3" max="3" width="37.3984375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="42.19921875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="43" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+      <c r="A3" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+      <c r="A4" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+      <c r="A5" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+      <c r="A6" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A10" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.45">
+      <c r="A14" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+      <c r="A15" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A16" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+      <c r="A18" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+      <c r="A20" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+      <c r="A21" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{9780DF05-8584-4CCB-B703-1E03AF32991F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8526CA-8E14-4BA8-BAA5-3C86D2FD4276}">
   <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/subgroups/sbom-sg/outcomes/SBOM/SBOMTools/LearnSBOM/LearnSBOMList.xlsx
+++ b/subgroups/sbom-sg/outcomes/SBOM/SBOMTools/LearnSBOM/LearnSBOMList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sonyjpn-my.sharepoint.com/personal/hiroyuki_fukuchi_sony_com/Documents/ドキュメント/OpenChain/SBOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="716" documentId="8_{0F481742-EC34-4620-BA6D-267154DAC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CF191AB-EF0A-433A-A0FC-C9561A164D6E}"/>
+  <xr:revisionPtr revIDLastSave="722" documentId="8_{0F481742-EC34-4620-BA6D-267154DAC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D64FF335-595A-4ECD-8473-81033B00F418}"/>
   <bookViews>
-    <workbookView xWindow="2952" yWindow="720" windowWidth="20772" windowHeight="11280" firstSheet="1" activeTab="4" xr2:uid="{627C03B7-2A37-4A7C-9FB2-07470DF8D28A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="20772" windowHeight="11280" firstSheet="1" activeTab="4" xr2:uid="{627C03B7-2A37-4A7C-9FB2-07470DF8D28A}"/>
   </bookViews>
   <sheets>
     <sheet name="SBOM_Utility_Tools" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="550">
   <si>
     <t>https://www.youtube.com/@LearnSBOM/playlistsその他は以下です。</t>
   </si>
@@ -8645,6 +8645,13 @@
     <rPh sb="8" eb="12">
       <t>ジッショウケンキュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Software Bill of Materials Adoption: A Mining Study from GitHub</t>
+  </si>
+  <si>
+    <t>BOMs Away! Inside the Minds of Stakeholders: A Comprehensive Study of Bills of Materials for Software Systems</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -20372,10 +20379,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C88F823-0D1C-4815-80D1-40AD63B22AC6}">
-  <dimension ref="A2:D23"/>
+  <dimension ref="A2:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -20457,99 +20464,99 @@
         <v>537</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+      <c r="A7" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A8" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="D8" s="22"/>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.45">
-      <c r="A10" s="22" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A11" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B11" s="22" t="s">
         <v>520</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C11" s="22" t="s">
         <v>521</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.45">
-      <c r="A14" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>11</v>
-      </c>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.45">
       <c r="A15" s="22" t="s">
         <v>528</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="22" t="s">
-        <v>522</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.45">
       <c r="A16" s="22" t="s">
         <v>528</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>524</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C16" s="22"/>
       <c r="D16" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A17" s="22" t="s">
         <v>528</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>14</v>
+        <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="22" t="s">
         <v>528</v>
       </c>
@@ -20557,13 +20564,13 @@
         <v>28</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.45">
       <c r="A19" s="22" t="s">
         <v>528</v>
       </c>
@@ -20574,19 +20581,21 @@
         <v>532</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>525</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="22" t="s">
         <v>528</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>532</v>
+      </c>
       <c r="D20" s="22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.45">
@@ -20594,26 +20603,38 @@
         <v>528</v>
       </c>
       <c r="B21" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+      <c r="A22" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C22" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D22" s="22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/subgroups/sbom-sg/outcomes/SBOM/SBOMTools/LearnSBOM/LearnSBOMList.xlsx
+++ b/subgroups/sbom-sg/outcomes/SBOM/SBOMTools/LearnSBOM/LearnSBOMList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sonyjpn-my.sharepoint.com/personal/hiroyuki_fukuchi_sony_com/Documents/ドキュメント/OpenChain/SBOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="722" documentId="8_{0F481742-EC34-4620-BA6D-267154DAC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D64FF335-595A-4ECD-8473-81033B00F418}"/>
+  <xr:revisionPtr revIDLastSave="728" documentId="8_{0F481742-EC34-4620-BA6D-267154DAC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA8630A9-65C8-49DA-B5E7-E5D96D0068F1}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="20772" windowHeight="11280" firstSheet="1" activeTab="4" xr2:uid="{627C03B7-2A37-4A7C-9FB2-07470DF8D28A}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="20772" windowHeight="11280" firstSheet="1" activeTab="4" xr2:uid="{627C03B7-2A37-4A7C-9FB2-07470DF8D28A}"/>
   </bookViews>
   <sheets>
     <sheet name="SBOM_Utility_Tools" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="554">
   <si>
     <t>https://www.youtube.com/@LearnSBOM/playlistsその他は以下です。</t>
   </si>
@@ -8652,6 +8652,37 @@
   </si>
   <si>
     <t>BOMs Away! Inside the Minds of Stakeholders: A Comprehensive Study of Bills of Materials for Software Systems</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Software_Bill_of_Materials_Adoption_A_Mining_Study_from_GitHub_-_A_Replication_Package/22626490</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2309.12206</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SBOMに関する調査</t>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SBOM適用についてGitHubでの状況調査</t>
+    <rPh sb="4" eb="6">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョウサ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -20379,10 +20410,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C88F823-0D1C-4815-80D1-40AD63B22AC6}">
-  <dimension ref="A2:D24"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -20464,113 +20495,113 @@
         <v>537</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.45">
       <c r="A7" s="22" t="s">
         <v>538</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="22" t="s">
+        <v>553</v>
+      </c>
       <c r="C7" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="15" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A8" s="22" t="s">
         <v>538</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="22" t="s">
+        <v>552</v>
+      </c>
       <c r="C8" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="15"/>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.45">
-      <c r="A11" s="22" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A12" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B12" s="22" t="s">
         <v>520</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C12" s="22" t="s">
         <v>521</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.45">
-      <c r="A15" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>11</v>
-      </c>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.45">
       <c r="A16" s="22" t="s">
         <v>528</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="D16" s="22" t="s">
-        <v>522</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.45">
       <c r="A17" s="22" t="s">
         <v>528</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>524</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C17" s="22"/>
       <c r="D17" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A18" s="22" t="s">
         <v>528</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>14</v>
+        <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="22" t="s">
         <v>528</v>
       </c>
@@ -20578,13 +20609,13 @@
         <v>28</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.45">
       <c r="A20" s="22" t="s">
         <v>528</v>
       </c>
@@ -20595,19 +20626,21 @@
         <v>532</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>525</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="22" t="s">
         <v>528</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>532</v>
+      </c>
       <c r="D21" s="22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.45">
@@ -20615,20 +20648,26 @@
         <v>528</v>
       </c>
       <c r="B22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+      <c r="A23" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C23" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D23" s="22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="22"/>
@@ -20636,13 +20675,21 @@
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{9780DF05-8584-4CCB-B703-1E03AF32991F}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{B750DF48-748B-49B2-9FD3-33A27183C928}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{86416F5F-1658-40A0-881D-451012F58262}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/subgroups/sbom-sg/outcomes/SBOM/SBOMTools/LearnSBOM/LearnSBOMList.xlsx
+++ b/subgroups/sbom-sg/outcomes/SBOM/SBOMTools/LearnSBOM/LearnSBOMList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sonyjpn-my.sharepoint.com/personal/hiroyuki_fukuchi_sony_com/Documents/ドキュメント/OpenChain/SBOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="728" documentId="8_{0F481742-EC34-4620-BA6D-267154DAC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA8630A9-65C8-49DA-B5E7-E5D96D0068F1}"/>
+  <xr:revisionPtr revIDLastSave="763" documentId="8_{0F481742-EC34-4620-BA6D-267154DAC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E49FBC2A-F5CB-460B-A429-645E182ADE55}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="20772" windowHeight="11280" firstSheet="1" activeTab="4" xr2:uid="{627C03B7-2A37-4A7C-9FB2-07470DF8D28A}"/>
+    <workbookView xWindow="276" yWindow="804" windowWidth="20772" windowHeight="11280" firstSheet="1" activeTab="4" xr2:uid="{627C03B7-2A37-4A7C-9FB2-07470DF8D28A}"/>
   </bookViews>
   <sheets>
     <sheet name="SBOM_Utility_Tools" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="572">
   <si>
     <t>https://www.youtube.com/@LearnSBOM/playlistsその他は以下です。</t>
   </si>
@@ -8683,6 +8683,101 @@
     <rPh sb="20" eb="22">
       <t>チョウサ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Challenges inhibiting SBOM and VEX uptake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>How are device SBOMs different from “user-managed” software SBOMs?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The problem of forked components</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1FBFdSFaMnOq43b4oWV741ETSRb8TQUiqXpHSQywr1MU/edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1UHNRdNzhC5o4nvdkVwHwcsONi3qVgM0ABgbfhm8jpVY/edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OWASP CycloneDX関連</t>
+    <rPh sb="15" eb="17">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1DBeOJEFbdkdaJaaflMpqDy4NQdhSi70pJTX6YJkqS60/edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://owasp.org/assets/files/posts/A%20Proposal%20to%20Operationalize%20Component%20Identification%20for%20Vulnerability%20Management.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A Proposal to Operationalize Component Identification
+for Vulnerability Management</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案</t>
+    <rPh sb="0" eb="2">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SBOM Forum（OWASP）　CPEに関する提案</t>
+    <rPh sb="22" eb="23">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案状況</t>
+    <rPh sb="0" eb="2">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://owasp.org/blog/2023/10/11/OWASP-Foundation-Pursues-Ecma-International-Standardization-of-CycloneDX.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OWASP Foundation Pursues Ecma International Standardization of CycloneDX - How This Benefits CycloneDX Adopters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OWASPによるCycloneDX標準化（ECMA International Standardization ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Open VEX解説</t>
+    <rPh sb="8" eb="10">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.kusari.dev/blog/spooky-enhancements-unveiling-guacs-openvex-feature</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spooky Enhancements: Unveiling GUAC's OpenVEX Feature
+GUAC's OpenVEX Integration</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -20410,10 +20505,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C88F823-0D1C-4815-80D1-40AD63B22AC6}">
-  <dimension ref="A2:D25"/>
+  <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -20549,84 +20644,84 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.45">
+      <c r="A13" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>561</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+    <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.45">
+      <c r="A14" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>566</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.45">
-      <c r="A16" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>11</v>
-      </c>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A17" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
-        <v>522</v>
-      </c>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.45">
       <c r="A18" s="22" t="s">
         <v>528</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>524</v>
+        <v>18</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>523</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.45">
       <c r="A19" s="22" t="s">
         <v>528</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>533</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C19" s="22"/>
       <c r="D19" s="22" t="s">
-        <v>14</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A20" s="22" t="s">
         <v>528</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>15</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -20637,10 +20732,10 @@
         <v>28</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>525</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.45">
@@ -20648,38 +20743,128 @@
         <v>528</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>532</v>
+      </c>
       <c r="D22" s="22" t="s">
-        <v>526</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="22" t="s">
         <v>528</v>
       </c>
       <c r="B23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+      <c r="A24" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+      <c r="A25" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C25" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D25" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+    <row r="26" spans="1:4" ht="54" x14ac:dyDescent="0.45">
+      <c r="A26" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+    <row r="27" spans="1:4" ht="54" x14ac:dyDescent="0.45">
+      <c r="A27" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="A28" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A29" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -20687,9 +20872,15 @@
     <hyperlink ref="D4" r:id="rId1" xr:uid="{9780DF05-8584-4CCB-B703-1E03AF32991F}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{B750DF48-748B-49B2-9FD3-33A27183C928}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{86416F5F-1658-40A0-881D-451012F58262}"/>
+    <hyperlink ref="D26" r:id="rId4" xr:uid="{56E7B146-7316-462C-9472-F79DB76FFD22}"/>
+    <hyperlink ref="D27" r:id="rId5" xr:uid="{C6C4250D-A119-4D68-8BD4-FB3DB6A41E67}"/>
+    <hyperlink ref="D28" r:id="rId6" xr:uid="{6EEBA059-80A9-408F-B82C-E03E637DC78A}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{D6B30986-4815-4E46-97E6-ABC76A10D00A}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{B3B8E223-5AE2-4D41-AB5F-AD59294190F2}"/>
+    <hyperlink ref="D29" r:id="rId9" xr:uid="{1BF3C021-B453-4910-9FF3-BF0619968081}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/subgroups/sbom-sg/outcomes/SBOM/SBOMTools/LearnSBOM/LearnSBOMList.xlsx
+++ b/subgroups/sbom-sg/outcomes/SBOM/SBOMTools/LearnSBOM/LearnSBOMList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sonyjpn-my.sharepoint.com/personal/hiroyuki_fukuchi_sony_com/Documents/ドキュメント/OpenChain/SBOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="763" documentId="8_{0F481742-EC34-4620-BA6D-267154DAC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E49FBC2A-F5CB-460B-A429-645E182ADE55}"/>
+  <xr:revisionPtr revIDLastSave="773" documentId="8_{0F481742-EC34-4620-BA6D-267154DAC474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3D0D595-0D09-42F7-9B53-F0AA9AEFE9A7}"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="804" windowWidth="20772" windowHeight="11280" firstSheet="1" activeTab="4" xr2:uid="{627C03B7-2A37-4A7C-9FB2-07470DF8D28A}"/>
+    <workbookView xWindow="276" yWindow="804" windowWidth="20772" windowHeight="11280" xr2:uid="{627C03B7-2A37-4A7C-9FB2-07470DF8D28A}"/>
   </bookViews>
   <sheets>
     <sheet name="SBOM_Utility_Tools" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="575">
   <si>
     <t>https://www.youtube.com/@LearnSBOM/playlistsその他は以下です。</t>
   </si>
@@ -8778,6 +8778,19 @@
   <si>
     <t>Spooky Enhancements: Unveiling GUAC's OpenVEX Feature
 GUAC's OpenVEX Integration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/CoseSignTool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoseSignTool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoseSignTool is a platform-agnostic command line application to create and validate COSE signatures.
+By Microsoft</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -8887,7 +8900,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -8960,15 +8973,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8978,7 +8982,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9021,9 +9025,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9049,6 +9050,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10104,13 +10114,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10153,13 +10163,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10202,13 +10212,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10251,13 +10261,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10300,13 +10310,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10349,13 +10359,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10398,13 +10408,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10447,13 +10457,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18010,10 +18020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54119C77-527F-4903-B6A0-019866776B69}">
-  <dimension ref="A3:H27"/>
+  <dimension ref="A3:H28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -18022,7 +18032,7 @@
     <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" customWidth="1"/>
     <col min="4" max="4" width="31.796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.296875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="39.296875" style="16" customWidth="1"/>
     <col min="6" max="6" width="39.296875" style="3" customWidth="1"/>
     <col min="7" max="7" width="34.59765625" style="3" customWidth="1"/>
     <col min="8" max="8" width="42.19921875" style="3" customWidth="1"/>
@@ -18047,7 +18057,7 @@
       <c r="D5" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>440</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -18073,7 +18083,7 @@
       <c r="D6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>456</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -18097,7 +18107,7 @@
       <c r="D7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>457</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -18121,7 +18131,7 @@
       <c r="D8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>458</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -18145,7 +18155,7 @@
       <c r="D9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>459</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -18169,7 +18179,7 @@
       <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>460</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -18193,7 +18203,7 @@
       <c r="D11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>461</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -18217,7 +18227,7 @@
       <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>462</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -18241,7 +18251,7 @@
       <c r="D13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>463</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -18265,7 +18275,7 @@
       <c r="D14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>464</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -18289,7 +18299,7 @@
       <c r="D15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>465</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -18313,7 +18323,7 @@
       <c r="D16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>466</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -18337,7 +18347,7 @@
       <c r="D17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>467</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -18361,7 +18371,7 @@
       <c r="D18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>468</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -18385,7 +18395,7 @@
       <c r="D19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>469</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -18409,7 +18419,7 @@
       <c r="D20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>470</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -18433,7 +18443,7 @@
       <c r="D21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>454</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -18457,7 +18467,7 @@
       <c r="D22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>471</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -18481,7 +18491,7 @@
       <c r="D23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>472</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -18505,7 +18515,7 @@
       <c r="D24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>473</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -18529,7 +18539,7 @@
       <c r="D25" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>474</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -18553,7 +18563,7 @@
       <c r="D26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>475</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -18567,8 +18577,30 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="14"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.45">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="14" t="s">
+        <v>572</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -18595,10 +18627,12 @@
     <hyperlink ref="D3" r:id="rId20" display="https://www.youtube.com/@LearnSBOM" xr:uid="{2F888DB1-9515-4690-A63F-2AA3890E9A29}"/>
     <hyperlink ref="D7" r:id="rId21" tooltip="Tool Review: Markdown SBOM Tool" display="https://www.youtube.com/watch?v=n8KBKnW8PC8&amp;list=PLnQkMtYa9UKdXwfbIRHC_oUQF0nRyvump&amp;index=2&amp;pp=iAQB" xr:uid="{8F7DB812-F7DD-4682-8C33-26EBD957446A}"/>
     <hyperlink ref="D6" r:id="rId22" tooltip="Tool Review: CycloneDX SBOM Repository" display="https://www.youtube.com/watch?v=pBXKloPs4eA&amp;list=PLnQkMtYa9UKdXwfbIRHC_oUQF0nRyvump&amp;index=1&amp;pp=iAQB" xr:uid="{F9498CCE-E732-42CD-A501-9520DD77F08B}"/>
+    <hyperlink ref="H28" r:id="rId23" xr:uid="{CBE46937-BB3B-49B3-B85B-3E0D466109C2}"/>
+    <hyperlink ref="D28" r:id="rId24" xr:uid="{C0C10E1E-9481-4518-B193-8FA98B23226D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
-  <drawing r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -18615,7 +18649,7 @@
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
     <col min="2" max="3" width="19.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="31.796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="41.09765625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="41.09765625" style="16" customWidth="1"/>
     <col min="6" max="6" width="41.09765625" style="3" customWidth="1"/>
     <col min="7" max="7" width="34.59765625" style="3" customWidth="1"/>
     <col min="8" max="8" width="42.19921875" style="3" customWidth="1"/>
@@ -18640,7 +18674,7 @@
       <c r="D5" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>440</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -18663,10 +18697,10 @@
       <c r="C6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>478</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -18687,10 +18721,10 @@
       <c r="C7" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>442</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -18711,10 +18745,10 @@
       <c r="C8" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>479</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -18735,10 +18769,10 @@
       <c r="C9" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>460</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -18759,10 +18793,10 @@
       <c r="C10" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>480</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -18783,10 +18817,10 @@
       <c r="C11" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>481</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -18807,10 +18841,10 @@
       <c r="C12" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>482</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -18831,10 +18865,10 @@
       <c r="C13" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>446</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -18855,10 +18889,10 @@
       <c r="C14" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>483</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -18879,10 +18913,10 @@
       <c r="C15" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>484</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -18903,10 +18937,10 @@
       <c r="C16" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>485</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -18927,10 +18961,10 @@
       <c r="C17" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>486</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -18951,10 +18985,10 @@
       <c r="C18" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>487</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -18975,10 +19009,10 @@
       <c r="C19" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>488</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -18999,10 +19033,10 @@
       <c r="C20" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>450</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -19023,10 +19057,10 @@
       <c r="C21" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>489</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -19047,10 +19081,10 @@
       <c r="C22" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>490</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -19071,10 +19105,10 @@
       <c r="C23" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>491</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -19095,10 +19129,10 @@
       <c r="C24" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>492</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -19119,10 +19153,10 @@
       <c r="C25" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>493</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -19143,10 +19177,10 @@
       <c r="C26" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>494</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -19167,10 +19201,10 @@
       <c r="C27" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>495</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -19191,10 +19225,10 @@
       <c r="C28" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>496</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -19215,10 +19249,10 @@
       <c r="C29" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>497</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -19239,10 +19273,10 @@
       <c r="C30" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>498</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -19263,10 +19297,10 @@
       <c r="C31" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>476</v>
       </c>
       <c r="F31" s="4" t="s">
@@ -19287,10 +19321,10 @@
       <c r="C32" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>499</v>
       </c>
       <c r="F32" s="4" t="s">
@@ -19311,10 +19345,10 @@
       <c r="C33" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>500</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -19335,10 +19369,10 @@
       <c r="C34" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>477</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -19359,10 +19393,10 @@
       <c r="C35" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="18" t="s">
         <v>501</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -19383,10 +19417,10 @@
       <c r="C36" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>502</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -19407,10 +19441,10 @@
       <c r="C37" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="18" t="s">
         <v>503</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -19431,10 +19465,10 @@
       <c r="C38" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>504</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -19455,10 +19489,10 @@
       <c r="C39" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>505</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -19479,10 +19513,10 @@
       <c r="C40" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>506</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -19503,10 +19537,10 @@
       <c r="C41" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="18" t="s">
         <v>507</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -19527,10 +19561,10 @@
       <c r="C42" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="18" t="s">
         <v>470</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -19551,10 +19585,10 @@
       <c r="C43" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="18" t="s">
         <v>508</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -19575,10 +19609,10 @@
       <c r="C44" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="18" t="s">
         <v>509</v>
       </c>
       <c r="F44" s="4" t="s">
@@ -19599,10 +19633,10 @@
       <c r="C45" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="18" t="s">
         <v>510</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -19623,10 +19657,10 @@
       <c r="C46" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="18" t="s">
         <v>475</v>
       </c>
       <c r="F46" s="4" t="s">
@@ -19647,10 +19681,10 @@
       <c r="C47" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="18" t="s">
         <v>511</v>
       </c>
       <c r="F47" s="4" t="s">
@@ -19671,10 +19705,10 @@
       <c r="C48" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="18" t="s">
         <v>512</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -19695,10 +19729,10 @@
       <c r="C49" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="18" t="s">
         <v>513</v>
       </c>
       <c r="F49" s="4" t="s">
@@ -19719,10 +19753,10 @@
       <c r="C50" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="18" t="s">
         <v>514</v>
       </c>
       <c r="F50" s="4" t="s">
@@ -19805,7 +19839,7 @@
     <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.8984375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.59765625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="39.59765625" style="16" customWidth="1"/>
     <col min="6" max="6" width="39.59765625" style="3" customWidth="1"/>
     <col min="7" max="7" width="29.3984375" style="3" customWidth="1"/>
     <col min="8" max="8" width="42.19921875" style="3" customWidth="1"/>
@@ -19830,7 +19864,7 @@
       <c r="D5" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>440</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -19856,7 +19890,7 @@
       <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>515</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -19880,7 +19914,7 @@
       <c r="D7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>457</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -19904,7 +19938,7 @@
       <c r="D8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>458</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -19928,7 +19962,7 @@
       <c r="D9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>459</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -19952,7 +19986,7 @@
       <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>460</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -19976,7 +20010,7 @@
       <c r="D11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>516</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -20000,7 +20034,7 @@
       <c r="D12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>488</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -20024,7 +20058,7 @@
       <c r="D13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>517</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -20048,7 +20082,7 @@
       <c r="D14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>502</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -20085,7 +20119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EC331A-EAD8-4B76-BCAE-035C1A04ED8C}">
   <dimension ref="A3:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -20095,7 +20129,7 @@
     <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.8984375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.59765625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="39.59765625" style="16" customWidth="1"/>
     <col min="6" max="6" width="39.59765625" style="3" customWidth="1"/>
     <col min="7" max="7" width="29.3984375" style="3" customWidth="1"/>
     <col min="8" max="8" width="42.19921875" style="3" customWidth="1"/>
@@ -20120,7 +20154,7 @@
       <c r="D5" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>440</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -20141,10 +20175,10 @@
         <v>382</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>441</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -20165,10 +20199,10 @@
       <c r="C7" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>442</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -20187,10 +20221,10 @@
         <v>384</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>443</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -20209,10 +20243,10 @@
         <v>385</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>444</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -20231,10 +20265,10 @@
         <v>386</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>445</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -20253,10 +20287,10 @@
         <v>387</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>446</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -20275,10 +20309,10 @@
         <v>388</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>447</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -20297,10 +20331,10 @@
         <v>389</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>448</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -20321,10 +20355,10 @@
       <c r="C14" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>449</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -20345,10 +20379,10 @@
       <c r="C15" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>450</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -20369,10 +20403,10 @@
       <c r="C16" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>451</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -20391,10 +20425,10 @@
         <v>393</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>452</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -20413,10 +20447,10 @@
         <v>391</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>453</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -20437,10 +20471,10 @@
       <c r="C19" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>454</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -20461,10 +20495,10 @@
       <c r="C20" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>455</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -20507,364 +20541,364 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C88F823-0D1C-4815-80D1-40AD63B22AC6}">
   <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="31" style="20" customWidth="1"/>
-    <col min="3" max="3" width="37.3984375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="42.19921875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="43" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="20"/>
+    <col min="1" max="2" width="31" style="19" customWidth="1"/>
+    <col min="3" max="3" width="37.3984375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="42.19921875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="43" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>530</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>519</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.45">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.45">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.45">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.45">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.45">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.45">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.45">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.45">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="54" x14ac:dyDescent="0.45">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="54" x14ac:dyDescent="0.45">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.45">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="15"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
